--- a/桃太郎最強伝説/桃太郎最強伝説/Book3.xlsx
+++ b/桃太郎最強伝説/桃太郎最強伝説/Book3.xlsx
@@ -90,7 +90,382 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="62">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -453,7 +828,7 @@
   <dimension ref="A1:BD56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="Y32" sqref="Y32"/>
+      <selection activeCell="AL19" sqref="AL19:AM19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2599,16 +2974,16 @@
         <v>0</v>
       </c>
       <c r="AG13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="1">
         <v>0</v>
@@ -3753,25 +4128,25 @@
         <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="1">
         <v>0</v>
@@ -4099,7 +4474,7 @@
         <v>1</v>
       </c>
       <c r="W22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="1">
         <v>0</v>
@@ -4129,13 +4504,13 @@
         <v>0</v>
       </c>
       <c r="AG22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>0</v>
@@ -4269,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="W23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" s="1">
         <v>0</v>
@@ -4439,7 +4814,7 @@
         <v>1</v>
       </c>
       <c r="W24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="1">
         <v>0</v>
@@ -4609,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="W25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="1">
         <v>0</v>
@@ -4779,7 +5154,7 @@
         <v>1</v>
       </c>
       <c r="W26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" s="1">
         <v>0</v>
@@ -4949,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="W27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="1">
         <v>0</v>
@@ -5119,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="W28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" s="1">
         <v>0</v>
@@ -5289,7 +5664,7 @@
         <v>1</v>
       </c>
       <c r="W29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" s="1">
         <v>0</v>
@@ -9984,51 +10359,51 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BD56">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG12">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+  <conditionalFormatting sqref="AG12:AG13">
+    <cfRule type="cellIs" dxfId="57" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:AT46">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:AW47">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:AS46">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:AT48">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:AS47">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:AT47">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>

--- a/桃太郎最強伝説/桃太郎最強伝説/Book3.xlsx
+++ b/桃太郎最強伝説/桃太郎最強伝説/Book3.xlsx
@@ -90,382 +90,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -828,7 +453,7 @@
   <dimension ref="A1:BD56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="AL19" sqref="AL19:AM19"/>
+      <selection activeCell="AC38" sqref="AC38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7042,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="1">
         <v>0</v>
@@ -10359,51 +9984,51 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BD56">
-    <cfRule type="cellIs" dxfId="61" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG12:AG13">
-    <cfRule type="cellIs" dxfId="57" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:AT46">
-    <cfRule type="cellIs" dxfId="56" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:AW47">
-    <cfRule type="cellIs" dxfId="55" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:AS46">
-    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:AT48">
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:AS47">
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:AT47">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>

--- a/桃太郎最強伝説/桃太郎最強伝説/Book3.xlsx
+++ b/桃太郎最強伝説/桃太郎最強伝説/Book3.xlsx
@@ -90,7 +90,80 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -453,7 +526,7 @@
   <dimension ref="A1:BD56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="AC38" sqref="AC38"/>
+      <selection activeCell="AR15" sqref="AR15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2432,10 +2505,10 @@
         <v>3</v>
       </c>
       <c r="AH12" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI12" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ12" s="1">
         <v>0</v>
@@ -2602,10 +2675,10 @@
         <v>3</v>
       </c>
       <c r="AH13" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI13" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ13" s="1">
         <v>0</v>
@@ -9984,51 +10057,51 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BD56">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG12:AG13">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+  <conditionalFormatting sqref="AG12:AJ13">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:AT46">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:AW47">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:AS46">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:AT48">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:AS47">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:AT47">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>

--- a/桃太郎最強伝説/桃太郎最強伝説/Book3.xlsx
+++ b/桃太郎最強伝説/桃太郎最強伝説/Book3.xlsx
@@ -90,80 +90,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -526,7 +453,7 @@
   <dimension ref="A1:BD56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="AR15" sqref="AR15"/>
+      <selection activeCell="AL15" sqref="AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2857,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="1">
         <v>0</v>
@@ -10057,51 +9984,51 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BD56">
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG12:AJ13">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:AT46">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:AW47">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:AS46">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:AT48">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:AS47">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:AT47">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>

--- a/桃太郎最強伝説/桃太郎最強伝説/Book3.xlsx
+++ b/桃太郎最強伝説/桃太郎最強伝説/Book3.xlsx
@@ -453,7 +453,7 @@
   <dimension ref="A1:BD56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="AL15" sqref="AL15"/>
+      <selection activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="AM11" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AN11" s="1">
         <v>0</v>
